--- a/AWS/PowerBI/PowerBI Files/FS_AWS_Actual_2022.xlsx
+++ b/AWS/PowerBI/PowerBI Files/FS_AWS_Actual_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ED_Engineering\OP_Review_2022\AWS\PowerBI\PowerBI Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ED_Engineering\OP_Review_2022\QA\PostReleaseMetrics 2022\PowerBI_ED_Repo\AWS\PowerBI\PowerBI Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,31 +423,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>71350</v>
+        <v>71311</v>
       </c>
       <c r="B2">
-        <v>71294</v>
+        <v>71255</v>
       </c>
       <c r="C2">
-        <v>79055</v>
+        <v>79016</v>
       </c>
       <c r="D2">
-        <v>76323</v>
+        <v>76264</v>
       </c>
       <c r="E2">
-        <v>80330</v>
+        <v>81818</v>
       </c>
       <c r="F2">
-        <v>86685</v>
+        <v>88161</v>
       </c>
       <c r="G2">
-        <v>85390</v>
+        <v>87076</v>
       </c>
       <c r="H2">
-        <v>87971</v>
+        <v>89711</v>
       </c>
       <c r="I2">
-        <v>98193</v>
+        <v>99889</v>
+      </c>
+      <c r="J2">
+        <v>112484</v>
       </c>
     </row>
   </sheetData>

--- a/AWS/PowerBI/PowerBI Files/FS_AWS_Actual_2022.xlsx
+++ b/AWS/PowerBI/PowerBI Files/FS_AWS_Actual_2022.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,6 +452,9 @@
       <c r="J2">
         <v>112484</v>
       </c>
+      <c r="K2">
+        <v>106701</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AWS/PowerBI/PowerBI Files/FS_AWS_Actual_2022.xlsx
+++ b/AWS/PowerBI/PowerBI Files/FS_AWS_Actual_2022.xlsx
@@ -363,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +455,9 @@
       <c r="K2">
         <v>106701</v>
       </c>
+      <c r="L2">
+        <v>85673</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
